--- a/Federated Electric Market/result_excel/train_loss/frac/frac=0.2.xlsx
+++ b/Federated Electric Market/result_excel/train_loss/frac/frac=0.2.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0166064850064589</v>
+        <v>0.01017918141234118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09451923107252795</v>
+        <v>0.07010151743476863</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1194402130887666</v>
+        <v>0.09022184178173892</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008067498076045674</v>
+        <v>0.007210573818177434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06685474329289387</v>
+        <v>0.05980026318679355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08580026149868211</v>
+        <v>0.0783008399585701</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.004047310968831261</v>
+        <v>0.007677869694435968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0422460385873676</v>
+        <v>0.06247915174960652</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05693787259865233</v>
+        <v>0.08050653940746862</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.008341642882577469</v>
+        <v>0.007345772550920993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06992615006897238</v>
+        <v>0.06026181879779209</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0884356370230254</v>
+        <v>0.07890872714209246</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00989831619687417</v>
+        <v>0.007449883350150482</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07474181442909562</v>
+        <v>0.05962700980826519</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09566929470082457</v>
+        <v>0.07836022837339095</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.008332157735902341</v>
+        <v>0.006013463475402271</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06952785749408026</v>
+        <v>0.05407488515963586</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08818173550017513</v>
+        <v>0.07104511629789814</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.005322661550475304</v>
+        <v>0.006720985111021122</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04978120420524414</v>
+        <v>0.0577875440446138</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06685396446027762</v>
+        <v>0.07575779098418177</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.008205979487926621</v>
+        <v>0.006934439526942841</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05923601256580999</v>
+        <v>0.05842345097825952</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0826064086400058</v>
+        <v>0.07651443627670612</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003574415905515049</v>
+        <v>0.005978119163152783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04312396090834382</v>
+        <v>0.05348025029502303</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05649163888316573</v>
+        <v>0.07067027550005185</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.008450601734790675</v>
+        <v>0.008169178846685943</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0664034147808784</v>
+        <v>0.06297091990679593</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0844917932344369</v>
+        <v>0.08292977552236085</v>
       </c>
     </row>
   </sheetData>
